--- a/po_analysis_by_asin/B09T5SDSYX_po_data.xlsx
+++ b/po_analysis_by_asin/B09T5SDSYX_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -460,55 +460,55 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>20</v>
@@ -516,23 +516,23 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45495</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>40</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45509</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>40</v>
@@ -548,9 +548,257 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45565</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B45" t="n">
         <v>40</v>
       </c>
     </row>
@@ -565,7 +813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,57 +835,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>40</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09T5SDSYX_po_data.xlsx
+++ b/po_analysis_by_asin/B09T5SDSYX_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -829,7 +830,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -975,6 +976,775 @@
       </c>
       <c r="B19" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-10.85993080341517</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.55758078583801</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>33</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-12.84977127189371</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79.74256002576003</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-12.81090569447243</v>
+      </c>
+      <c r="D4" t="n">
+        <v>73.1419728709415</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>33</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.929748763774786</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.91533224822346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>34</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-9.724710080521538</v>
+      </c>
+      <c r="D6" t="n">
+        <v>78.27238762422658</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-7.620933516224</v>
+      </c>
+      <c r="D7" t="n">
+        <v>77.20854660422394</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-10.3538272202614</v>
+      </c>
+      <c r="D8" t="n">
+        <v>78.5806503796362</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-7.71178063774533</v>
+      </c>
+      <c r="D9" t="n">
+        <v>78.27686856442385</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.561799194461335</v>
+      </c>
+      <c r="D10" t="n">
+        <v>80.38585345170493</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.567434336462332</v>
+      </c>
+      <c r="D11" t="n">
+        <v>79.6699888027627</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>37</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-4.368682203417563</v>
+      </c>
+      <c r="D12" t="n">
+        <v>81.5300247288432</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.937601849547096</v>
+      </c>
+      <c r="D13" t="n">
+        <v>82.11363607061691</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>38</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.002199687694895411</v>
+      </c>
+      <c r="D14" t="n">
+        <v>85.0573743549179</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.6764043573730033</v>
+      </c>
+      <c r="D15" t="n">
+        <v>84.10265580962587</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>39</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-5.985603065446033</v>
+      </c>
+      <c r="D16" t="n">
+        <v>82.87305689059856</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>40</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-5.113206063348859</v>
+      </c>
+      <c r="D17" t="n">
+        <v>81.07136750699448</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.779884957052984</v>
+      </c>
+      <c r="D18" t="n">
+        <v>82.85246780761285</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-5.88608566600058</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80.83577981639884</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8528602271784486</v>
+      </c>
+      <c r="D20" t="n">
+        <v>85.18614683784664</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.28555925744528</v>
+      </c>
+      <c r="D21" t="n">
+        <v>89.76776763807382</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>44</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.058074901873497</v>
+      </c>
+      <c r="D22" t="n">
+        <v>90.65092023628563</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>44</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.401392311827806</v>
+      </c>
+      <c r="D23" t="n">
+        <v>86.55948294914863</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.295710541775224</v>
+      </c>
+      <c r="D24" t="n">
+        <v>87.43269756392857</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>46</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.758464559031924</v>
+      </c>
+      <c r="D25" t="n">
+        <v>91.40358125763645</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>46</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.7595893329133</v>
+      </c>
+      <c r="D26" t="n">
+        <v>90.50245066927579</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>47</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.814424121967414</v>
+      </c>
+      <c r="D27" t="n">
+        <v>92.3212418503917</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>47</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.359246190567024</v>
+      </c>
+      <c r="D28" t="n">
+        <v>91.88624403886784</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>48</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.084827479256883</v>
+      </c>
+      <c r="D29" t="n">
+        <v>90.68153658776866</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>48</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.505544237046595</v>
+      </c>
+      <c r="D30" t="n">
+        <v>94.8902112766622</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.618216953874038</v>
+      </c>
+      <c r="D31" t="n">
+        <v>96.26890932379128</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.506424642975058</v>
+      </c>
+      <c r="D32" t="n">
+        <v>93.13870362518158</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>51</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11.48608788281785</v>
+      </c>
+      <c r="D33" t="n">
+        <v>94.68419205509542</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>51</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9.009739084841261</v>
+      </c>
+      <c r="D34" t="n">
+        <v>95.23739824685281</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>52</v>
+      </c>
+      <c r="C35" t="n">
+        <v>11.89053638624672</v>
+      </c>
+      <c r="D35" t="n">
+        <v>94.16805686869651</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>53</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10.82492708397616</v>
+      </c>
+      <c r="D36" t="n">
+        <v>95.14163945397446</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>54</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.33198100357547</v>
+      </c>
+      <c r="D37" t="n">
+        <v>97.99835699534147</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>54</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10.74566662397709</v>
+      </c>
+      <c r="D38" t="n">
+        <v>98.4525757113005</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>55</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11.82567646755736</v>
+      </c>
+      <c r="D39" t="n">
+        <v>97.22027177120496</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>56</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.841660703444381</v>
+      </c>
+      <c r="D40" t="n">
+        <v>102.7369275275635</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>56</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10.56111655268359</v>
+      </c>
+      <c r="D41" t="n">
+        <v>100.2363150924824</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>57</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12.58227305073024</v>
+      </c>
+      <c r="D42" t="n">
+        <v>98.94094092768762</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>62</v>
+      </c>
+      <c r="C43" t="n">
+        <v>15.85368478269511</v>
+      </c>
+      <c r="D43" t="n">
+        <v>103.5541155575336</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>63</v>
+      </c>
+      <c r="C44" t="n">
+        <v>17.6936243939304</v>
+      </c>
+      <c r="D44" t="n">
+        <v>105.0715399141462</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>66</v>
+      </c>
+      <c r="C45" t="n">
+        <v>23.01256738198197</v>
+      </c>
+      <c r="D45" t="n">
+        <v>107.9769106004481</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>66</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17.68730420178336</v>
+      </c>
+      <c r="D46" t="n">
+        <v>107.6144365668098</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>67</v>
+      </c>
+      <c r="C47" t="n">
+        <v>22.37326728011341</v>
+      </c>
+      <c r="D47" t="n">
+        <v>111.494431584454</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>67</v>
+      </c>
+      <c r="C48" t="n">
+        <v>22.18761511900923</v>
+      </c>
+      <c r="D48" t="n">
+        <v>108.1519067135563</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>68</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25.93082255245277</v>
+      </c>
+      <c r="D49" t="n">
+        <v>110.3540755878035</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>68</v>
+      </c>
+      <c r="C50" t="n">
+        <v>22.4231143953041</v>
+      </c>
+      <c r="D50" t="n">
+        <v>112.5114234835408</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>68</v>
+      </c>
+      <c r="C51" t="n">
+        <v>26.24803020983996</v>
+      </c>
+      <c r="D51" t="n">
+        <v>113.1547316185315</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>69</v>
+      </c>
+      <c r="C52" t="n">
+        <v>25.19587666475322</v>
+      </c>
+      <c r="D52" t="n">
+        <v>108.99151345695</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>69</v>
+      </c>
+      <c r="C53" t="n">
+        <v>26.1725493200844</v>
+      </c>
+      <c r="D53" t="n">
+        <v>116.2594920599615</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09T5SDSYX_po_data.xlsx
+++ b/po_analysis_by_asin/B09T5SDSYX_po_data.xlsx
@@ -989,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,16 +1008,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1026,12 +1016,6 @@
       <c r="B2" t="n">
         <v>32</v>
       </c>
-      <c r="C2" t="n">
-        <v>-10.85993080341517</v>
-      </c>
-      <c r="D2" t="n">
-        <v>75.55758078583801</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1040,12 +1024,6 @@
       <c r="B3" t="n">
         <v>33</v>
       </c>
-      <c r="C3" t="n">
-        <v>-12.84977127189371</v>
-      </c>
-      <c r="D3" t="n">
-        <v>79.74256002576003</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1054,12 +1032,6 @@
       <c r="B4" t="n">
         <v>33</v>
       </c>
-      <c r="C4" t="n">
-        <v>-12.81090569447243</v>
-      </c>
-      <c r="D4" t="n">
-        <v>73.1419728709415</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1068,12 +1040,6 @@
       <c r="B5" t="n">
         <v>33</v>
       </c>
-      <c r="C5" t="n">
-        <v>-8.929748763774786</v>
-      </c>
-      <c r="D5" t="n">
-        <v>74.91533224822346</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1082,12 +1048,6 @@
       <c r="B6" t="n">
         <v>34</v>
       </c>
-      <c r="C6" t="n">
-        <v>-9.724710080521538</v>
-      </c>
-      <c r="D6" t="n">
-        <v>78.27238762422658</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1096,12 +1056,6 @@
       <c r="B7" t="n">
         <v>34</v>
       </c>
-      <c r="C7" t="n">
-        <v>-7.620933516224</v>
-      </c>
-      <c r="D7" t="n">
-        <v>77.20854660422394</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1110,12 +1064,6 @@
       <c r="B8" t="n">
         <v>34</v>
       </c>
-      <c r="C8" t="n">
-        <v>-10.3538272202614</v>
-      </c>
-      <c r="D8" t="n">
-        <v>78.5806503796362</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1124,12 +1072,6 @@
       <c r="B9" t="n">
         <v>35</v>
       </c>
-      <c r="C9" t="n">
-        <v>-7.71178063774533</v>
-      </c>
-      <c r="D9" t="n">
-        <v>78.27686856442385</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1138,12 +1080,6 @@
       <c r="B10" t="n">
         <v>35</v>
       </c>
-      <c r="C10" t="n">
-        <v>-7.561799194461335</v>
-      </c>
-      <c r="D10" t="n">
-        <v>80.38585345170493</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1152,12 +1088,6 @@
       <c r="B11" t="n">
         <v>36</v>
       </c>
-      <c r="C11" t="n">
-        <v>-3.567434336462332</v>
-      </c>
-      <c r="D11" t="n">
-        <v>79.6699888027627</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1166,12 +1096,6 @@
       <c r="B12" t="n">
         <v>37</v>
       </c>
-      <c r="C12" t="n">
-        <v>-4.368682203417563</v>
-      </c>
-      <c r="D12" t="n">
-        <v>81.5300247288432</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1180,12 +1104,6 @@
       <c r="B13" t="n">
         <v>38</v>
       </c>
-      <c r="C13" t="n">
-        <v>-4.937601849547096</v>
-      </c>
-      <c r="D13" t="n">
-        <v>82.11363607061691</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1194,12 +1112,6 @@
       <c r="B14" t="n">
         <v>38</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.002199687694895411</v>
-      </c>
-      <c r="D14" t="n">
-        <v>85.0573743549179</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1208,12 +1120,6 @@
       <c r="B15" t="n">
         <v>38</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.6764043573730033</v>
-      </c>
-      <c r="D15" t="n">
-        <v>84.10265580962587</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1222,12 +1128,6 @@
       <c r="B16" t="n">
         <v>39</v>
       </c>
-      <c r="C16" t="n">
-        <v>-5.985603065446033</v>
-      </c>
-      <c r="D16" t="n">
-        <v>82.87305689059856</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1236,12 +1136,6 @@
       <c r="B17" t="n">
         <v>40</v>
       </c>
-      <c r="C17" t="n">
-        <v>-5.113206063348859</v>
-      </c>
-      <c r="D17" t="n">
-        <v>81.07136750699448</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1250,12 +1144,6 @@
       <c r="B18" t="n">
         <v>40</v>
       </c>
-      <c r="C18" t="n">
-        <v>-2.779884957052984</v>
-      </c>
-      <c r="D18" t="n">
-        <v>82.85246780761285</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1264,12 +1152,6 @@
       <c r="B19" t="n">
         <v>41</v>
       </c>
-      <c r="C19" t="n">
-        <v>-5.88608566600058</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80.83577981639884</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1278,12 +1160,6 @@
       <c r="B20" t="n">
         <v>43</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.8528602271784486</v>
-      </c>
-      <c r="D20" t="n">
-        <v>85.18614683784664</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1292,12 +1168,6 @@
       <c r="B21" t="n">
         <v>43</v>
       </c>
-      <c r="C21" t="n">
-        <v>1.28555925744528</v>
-      </c>
-      <c r="D21" t="n">
-        <v>89.76776763807382</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1306,12 +1176,6 @@
       <c r="B22" t="n">
         <v>44</v>
       </c>
-      <c r="C22" t="n">
-        <v>-3.058074901873497</v>
-      </c>
-      <c r="D22" t="n">
-        <v>90.65092023628563</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1320,12 +1184,6 @@
       <c r="B23" t="n">
         <v>44</v>
       </c>
-      <c r="C23" t="n">
-        <v>2.401392311827806</v>
-      </c>
-      <c r="D23" t="n">
-        <v>86.55948294914863</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1334,12 +1192,6 @@
       <c r="B24" t="n">
         <v>45</v>
       </c>
-      <c r="C24" t="n">
-        <v>-1.295710541775224</v>
-      </c>
-      <c r="D24" t="n">
-        <v>87.43269756392857</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1348,12 +1200,6 @@
       <c r="B25" t="n">
         <v>46</v>
       </c>
-      <c r="C25" t="n">
-        <v>2.758464559031924</v>
-      </c>
-      <c r="D25" t="n">
-        <v>91.40358125763645</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1362,12 +1208,6 @@
       <c r="B26" t="n">
         <v>46</v>
       </c>
-      <c r="C26" t="n">
-        <v>2.7595893329133</v>
-      </c>
-      <c r="D26" t="n">
-        <v>90.50245066927579</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1376,12 +1216,6 @@
       <c r="B27" t="n">
         <v>47</v>
       </c>
-      <c r="C27" t="n">
-        <v>5.814424121967414</v>
-      </c>
-      <c r="D27" t="n">
-        <v>92.3212418503917</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1390,12 +1224,6 @@
       <c r="B28" t="n">
         <v>47</v>
       </c>
-      <c r="C28" t="n">
-        <v>2.359246190567024</v>
-      </c>
-      <c r="D28" t="n">
-        <v>91.88624403886784</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1404,12 +1232,6 @@
       <c r="B29" t="n">
         <v>48</v>
       </c>
-      <c r="C29" t="n">
-        <v>4.084827479256883</v>
-      </c>
-      <c r="D29" t="n">
-        <v>90.68153658776866</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1418,12 +1240,6 @@
       <c r="B30" t="n">
         <v>48</v>
       </c>
-      <c r="C30" t="n">
-        <v>5.505544237046595</v>
-      </c>
-      <c r="D30" t="n">
-        <v>94.8902112766622</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1432,12 +1248,6 @@
       <c r="B31" t="n">
         <v>49</v>
       </c>
-      <c r="C31" t="n">
-        <v>8.618216953874038</v>
-      </c>
-      <c r="D31" t="n">
-        <v>96.26890932379128</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1446,12 +1256,6 @@
       <c r="B32" t="n">
         <v>50</v>
       </c>
-      <c r="C32" t="n">
-        <v>4.506424642975058</v>
-      </c>
-      <c r="D32" t="n">
-        <v>93.13870362518158</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1460,12 +1264,6 @@
       <c r="B33" t="n">
         <v>51</v>
       </c>
-      <c r="C33" t="n">
-        <v>11.48608788281785</v>
-      </c>
-      <c r="D33" t="n">
-        <v>94.68419205509542</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1474,12 +1272,6 @@
       <c r="B34" t="n">
         <v>51</v>
       </c>
-      <c r="C34" t="n">
-        <v>9.009739084841261</v>
-      </c>
-      <c r="D34" t="n">
-        <v>95.23739824685281</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1488,12 +1280,6 @@
       <c r="B35" t="n">
         <v>52</v>
       </c>
-      <c r="C35" t="n">
-        <v>11.89053638624672</v>
-      </c>
-      <c r="D35" t="n">
-        <v>94.16805686869651</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1502,12 +1288,6 @@
       <c r="B36" t="n">
         <v>53</v>
       </c>
-      <c r="C36" t="n">
-        <v>10.82492708397616</v>
-      </c>
-      <c r="D36" t="n">
-        <v>95.14163945397446</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1516,12 +1296,6 @@
       <c r="B37" t="n">
         <v>54</v>
       </c>
-      <c r="C37" t="n">
-        <v>12.33198100357547</v>
-      </c>
-      <c r="D37" t="n">
-        <v>97.99835699534147</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1530,12 +1304,6 @@
       <c r="B38" t="n">
         <v>54</v>
       </c>
-      <c r="C38" t="n">
-        <v>10.74566662397709</v>
-      </c>
-      <c r="D38" t="n">
-        <v>98.4525757113005</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1544,12 +1312,6 @@
       <c r="B39" t="n">
         <v>55</v>
       </c>
-      <c r="C39" t="n">
-        <v>11.82567646755736</v>
-      </c>
-      <c r="D39" t="n">
-        <v>97.22027177120496</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1558,12 +1320,6 @@
       <c r="B40" t="n">
         <v>56</v>
       </c>
-      <c r="C40" t="n">
-        <v>9.841660703444381</v>
-      </c>
-      <c r="D40" t="n">
-        <v>102.7369275275635</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1572,12 +1328,6 @@
       <c r="B41" t="n">
         <v>56</v>
       </c>
-      <c r="C41" t="n">
-        <v>10.56111655268359</v>
-      </c>
-      <c r="D41" t="n">
-        <v>100.2363150924824</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1586,12 +1336,6 @@
       <c r="B42" t="n">
         <v>57</v>
       </c>
-      <c r="C42" t="n">
-        <v>12.58227305073024</v>
-      </c>
-      <c r="D42" t="n">
-        <v>98.94094092768762</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1600,12 +1344,6 @@
       <c r="B43" t="n">
         <v>62</v>
       </c>
-      <c r="C43" t="n">
-        <v>15.85368478269511</v>
-      </c>
-      <c r="D43" t="n">
-        <v>103.5541155575336</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1614,12 +1352,6 @@
       <c r="B44" t="n">
         <v>63</v>
       </c>
-      <c r="C44" t="n">
-        <v>17.6936243939304</v>
-      </c>
-      <c r="D44" t="n">
-        <v>105.0715399141462</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1628,12 +1360,6 @@
       <c r="B45" t="n">
         <v>66</v>
       </c>
-      <c r="C45" t="n">
-        <v>23.01256738198197</v>
-      </c>
-      <c r="D45" t="n">
-        <v>107.9769106004481</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1642,12 +1368,6 @@
       <c r="B46" t="n">
         <v>66</v>
       </c>
-      <c r="C46" t="n">
-        <v>17.68730420178336</v>
-      </c>
-      <c r="D46" t="n">
-        <v>107.6144365668098</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1656,12 +1376,6 @@
       <c r="B47" t="n">
         <v>67</v>
       </c>
-      <c r="C47" t="n">
-        <v>22.37326728011341</v>
-      </c>
-      <c r="D47" t="n">
-        <v>111.494431584454</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1670,12 +1384,6 @@
       <c r="B48" t="n">
         <v>67</v>
       </c>
-      <c r="C48" t="n">
-        <v>22.18761511900923</v>
-      </c>
-      <c r="D48" t="n">
-        <v>108.1519067135563</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1684,12 +1392,6 @@
       <c r="B49" t="n">
         <v>68</v>
       </c>
-      <c r="C49" t="n">
-        <v>25.93082255245277</v>
-      </c>
-      <c r="D49" t="n">
-        <v>110.3540755878035</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1698,12 +1400,6 @@
       <c r="B50" t="n">
         <v>68</v>
       </c>
-      <c r="C50" t="n">
-        <v>22.4231143953041</v>
-      </c>
-      <c r="D50" t="n">
-        <v>112.5114234835408</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1712,12 +1408,6 @@
       <c r="B51" t="n">
         <v>68</v>
       </c>
-      <c r="C51" t="n">
-        <v>26.24803020983996</v>
-      </c>
-      <c r="D51" t="n">
-        <v>113.1547316185315</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1726,12 +1416,6 @@
       <c r="B52" t="n">
         <v>69</v>
       </c>
-      <c r="C52" t="n">
-        <v>25.19587666475322</v>
-      </c>
-      <c r="D52" t="n">
-        <v>108.99151345695</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1739,12 +1423,6 @@
       </c>
       <c r="B53" t="n">
         <v>69</v>
-      </c>
-      <c r="C53" t="n">
-        <v>26.1725493200844</v>
-      </c>
-      <c r="D53" t="n">
-        <v>116.2594920599615</v>
       </c>
     </row>
   </sheetData>
